--- a/Output/Easments/Easments_Adk_parcel_tax.xlsx
+++ b/Output/Easments/Easments_Adk_parcel_tax.xlsx
@@ -374,25 +374,25 @@
     <t>Municipal Tax subsidy per dollar income</t>
   </si>
   <si>
+    <t>164600</t>
+  </si>
+  <si>
+    <t>232000</t>
+  </si>
+  <si>
+    <t>233800</t>
+  </si>
+  <si>
     <t>402800</t>
   </si>
   <si>
-    <t>232000</t>
-  </si>
-  <si>
-    <t>164600</t>
-  </si>
-  <si>
-    <t>233800</t>
-  </si>
-  <si>
     <t>nan</t>
   </si>
   <si>
+    <t>164601</t>
+  </si>
+  <si>
     <t>234401</t>
-  </si>
-  <si>
-    <t>164601</t>
   </si>
   <si>
     <t>234001</t>
@@ -2705,70 +2705,70 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>2.098004935</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H2" t="s">
         <v>118</v>
       </c>
       <c r="I2">
-        <v>2042.83962</v>
+        <v>2569.491</v>
       </c>
       <c r="J2">
-        <v>3252.38002</v>
+        <v>5673.802070000001</v>
       </c>
       <c r="K2">
-        <v>3734.3882</v>
+        <v>8133.1709</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.003265238134712284</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.001478726239739977</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.00103157797901431</v>
       </c>
       <c r="O2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P2">
-        <v>41.985</v>
+        <v>34.702</v>
       </c>
       <c r="Q2">
-        <v>26673.8</v>
+        <v>125756.8</v>
       </c>
       <c r="R2">
-        <v>1215</v>
+        <v>5496</v>
       </c>
       <c r="S2">
-        <v>1215</v>
+        <v>5496</v>
       </c>
       <c r="T2">
-        <v>1199</v>
+        <v>4927</v>
       </c>
       <c r="U2">
-        <v>16</v>
+        <v>569</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.001526564774381368</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>6.671607420036134E-05</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -2847,70 +2847,70 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C4">
-        <v>8.390000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="D4">
-        <v>2.098004935</v>
+        <v>0.681785</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H4" t="s">
         <v>120</v>
       </c>
       <c r="I4">
-        <v>2569.491</v>
+        <v>587.533</v>
       </c>
       <c r="J4">
-        <v>5673.802070000001</v>
+        <v>683.5760300000001</v>
       </c>
       <c r="K4">
-        <v>8133.1709</v>
+        <v>882.65916</v>
       </c>
       <c r="L4">
-        <v>0.003265238134712284</v>
+        <v>0.001157381798128786</v>
       </c>
       <c r="M4">
-        <v>0.001478726239739977</v>
+        <v>0.0009947686433650987</v>
       </c>
       <c r="N4">
-        <v>0.00103157797901431</v>
+        <v>0.0007703993011300081</v>
       </c>
       <c r="O4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P4">
-        <v>34.702</v>
+        <v>25.38</v>
       </c>
       <c r="Q4">
-        <v>125756.8</v>
+        <v>14747.4</v>
       </c>
       <c r="R4">
-        <v>5496</v>
+        <v>1161</v>
       </c>
       <c r="S4">
-        <v>5496</v>
+        <v>1161</v>
       </c>
       <c r="T4">
-        <v>4927</v>
+        <v>1144</v>
       </c>
       <c r="U4">
-        <v>569</v>
+        <v>17</v>
       </c>
       <c r="V4">
-        <v>0.001526564774381368</v>
+        <v>0.0005857019810508183</v>
       </c>
       <c r="W4">
-        <v>6.671607420036134E-05</v>
+        <v>4.610982274841667E-05</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -2918,70 +2918,70 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C5">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.681785</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H5" t="s">
         <v>121</v>
       </c>
       <c r="I5">
-        <v>587.533</v>
+        <v>2042.83962</v>
       </c>
       <c r="J5">
-        <v>683.5760300000001</v>
+        <v>3252.38002</v>
       </c>
       <c r="K5">
-        <v>882.65916</v>
+        <v>3734.3882</v>
       </c>
       <c r="L5">
-        <v>0.001157381798128786</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0009947686433650987</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.0007703993011300081</v>
+        <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P5">
-        <v>25.38</v>
+        <v>41.985</v>
       </c>
       <c r="Q5">
-        <v>14747.4</v>
+        <v>26673.8</v>
       </c>
       <c r="R5">
-        <v>1161</v>
+        <v>1215</v>
       </c>
       <c r="S5">
-        <v>1161</v>
+        <v>1215</v>
       </c>
       <c r="T5">
-        <v>1144</v>
+        <v>1199</v>
       </c>
       <c r="U5">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V5">
-        <v>0.0005857019810508183</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>4.610982274841667E-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -3063,37 +3063,37 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2">
-        <v>4.85</v>
+        <v>28.73</v>
       </c>
       <c r="D2">
-        <v>4.846674</v>
+        <v>7.183628204999999</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
         <v>123</v>
       </c>
       <c r="G2">
-        <v>4939.19</v>
+        <v>21575.577</v>
       </c>
       <c r="H2">
-        <v>6158.364</v>
+        <v>23612.979</v>
       </c>
       <c r="I2">
-        <v>18034.223</v>
+        <v>35434.915</v>
       </c>
       <c r="J2">
-        <v>0.0009819423832652724</v>
+        <v>0.001331598223305917</v>
       </c>
       <c r="K2">
-        <v>0.0007875468225002614</v>
+        <v>0.001216703745850958</v>
       </c>
       <c r="L2">
-        <v>0.0002689331278647269</v>
+        <v>0.0008107822468319735</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -3101,37 +3101,37 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C3">
-        <v>28.73</v>
+        <v>4.85</v>
       </c>
       <c r="D3">
-        <v>7.183628204999999</v>
+        <v>4.846674</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
         <v>124</v>
       </c>
       <c r="G3">
-        <v>21575.577</v>
+        <v>4939.19</v>
       </c>
       <c r="H3">
-        <v>23612.979</v>
+        <v>6158.364</v>
       </c>
       <c r="I3">
-        <v>35434.915</v>
+        <v>18034.223</v>
       </c>
       <c r="J3">
-        <v>0.001331598223305917</v>
+        <v>0.0009819423832652724</v>
       </c>
       <c r="K3">
-        <v>0.001216703745850958</v>
+        <v>0.0007875468225002614</v>
       </c>
       <c r="L3">
-        <v>0.0008107822468319735</v>
+        <v>0.0002689331278647269</v>
       </c>
     </row>
     <row r="4" spans="1:12">
